--- a/F_dataset/DUD-E/MET/MET_preprocessing/MET_test.xlsx
+++ b/F_dataset/DUD-E/MET/MET_preprocessing/MET_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL254760</t>
+          <t>CHEMBL502531</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)c1</t>
+          <t>C#Cc1c(Oc2ccc(NC(=O)NC(=O)Cc3ccc(F)cc3)cc2F)ccnc1N</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)c1</t>
+          <t>C#Cc1c(Oc2ccc(NC(=O)NC(=O)Cc3ccc(F)cc3)cc2F)ccnc1N</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>517.61</v>
+        <v>422.39</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>81.06999999999999</v>
+        <v>106.34</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C94040&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C944A0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL258240</t>
+          <t>CHEMBL566010</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,44 +692,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cn1ccnc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
+          <t>O=C(CC(=O)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCCC4)sc23)c(F)c1)Nc1ccccc1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cn1ccnc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
+          <t>O=C(CC(=O)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCCC4)sc23)c(F)c1)Nc1ccccc1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>517.61</v>
+        <v>518.5700000000001</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>81.06999999999999</v>
+        <v>100.63</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F0C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C94350&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL454101</t>
+          <t>CHEMBL413996</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,44 +760,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(-c2ccccn2)c1=O</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)NC(=O)Cc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(-c2ccccn2)c1=O</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)NC(=O)Cc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>441.42</v>
+        <v>579.61</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>101.9</v>
+        <v>113.33</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F03C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C942E0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL455655</t>
+          <t>CHEMBL258240</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CCn1ccnc1-c1cc2nccc(Oc3ccc(NC(=O)N4CCN(c5ccccc5)C4=O)cc3F)c2s1</t>
+          <t>Cn1ccnc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CCn1ccnc1-c1cc2nccc(Oc3ccc(NC(=O)N4CCN(c5ccccc5)C4=O)cc3F)c2s1</t>
+          <t>Cn1ccnc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>542.6</v>
+        <v>517.61</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>92.59</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F0660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C97B50&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL518676</t>
+          <t>CHEMBL565807</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=S)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
+          <t>CCn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5(C(=O)Nc6ccccc6)CC5)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=S)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
+          <t>CCn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5(C(=O)Nc6ccccc6)CC5)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,16 +915,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>544.64</v>
+        <v>541.61</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>75.52</v>
+        <v>98.14</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F09E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C975A0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL402036</t>
+          <t>CHEMBL502283</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
+          <t>Nc1nc(-c2c[nH]c3nccc(Oc4ccc(NC(=O)NC(=O)Cc5ccc(F)cc5)cc4F)c23)cs1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
+          <t>Nc1nc(-c2c[nH]c3nccc(Oc4ccc(NC(=O)NC(=O)Cc5ccc(F)cc5)cc4F)c23)cs1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>508.6</v>
+        <v>520.52</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
@@ -995,13 +995,13 @@
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>83.56</v>
+        <v>135.02</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C96DC0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL256786</t>
+          <t>CHEMBL453850</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4cncnc4)sc23)c(F)c1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(Cc2ccc(F)cc2)c1=O</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4cncnc4)sc23)c(F)c1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(Cc2ccc(F)cc2)c1=O</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>515.6</v>
+        <v>472.45</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>6</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>89.03</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C97C30&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL402004</t>
+          <t>CHEMBL454101</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4cccs4)sc23)c(F)c1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(-c2ccccn2)c1=O</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4cccs4)sc23)c(F)c1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(-c2ccccn2)c1=O</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>519.65</v>
+        <v>441.42</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>63.25</v>
+        <v>101.9</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F02E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C97060&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL257546</t>
+          <t>CHEMBL455655</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)c4ccco4)sc23)c(F)c1</t>
+          <t>CCn1ccnc1-c1cc2nccc(Oc3ccc(NC(=O)N4CCN(c5ccccc5)C4=O)cc3F)c2s1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)c4ccco4)sc23)c(F)c1</t>
+          <t>CCn1ccnc1-c1cc2nccc(Oc3ccc(NC(=O)N4CCN(c5ccccc5)C4=O)cc3F)c2s1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>531.59</v>
+        <v>542.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>93.45999999999999</v>
+        <v>92.59</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F0350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C943C0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL429490</t>
+          <t>CHEMBL518209</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CNC4CCNCC4)c23)c(F)c1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CNC4CCNCC4)c23)c(F)c1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>535.5599999999999</v>
+        <v>527.58</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>121.68</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F0900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C94740&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL399674</t>
+          <t>CHEMBL402036</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4cccs4)cc3F)c12</t>
+          <t>CN(C)C(=O)c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4cccs4)cc3F)c12</t>
+          <t>CN(C)C(=O)c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>510.6</v>
+        <v>508.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>84.23</v>
+        <v>83.56</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C94270&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL254761</t>
+          <t>CHEMBL1098157</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CN1CCN(C(=O)c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)CC1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)c5cnn(C)c5C(F)(F)F)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CN1CCN(C(=O)c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)CC1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)c5cnn(C)c5C(F)(F)F)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>563.6799999999999</v>
+        <v>516.48</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>86.8</v>
+        <v>86.86</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C94200&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL253656</t>
+          <t>CHEMBL257546</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CN4CCOCC4)c23)c(F)c1</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)c4ccco4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CN4CCOCC4)c23)c(F)c1</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)c4ccco4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>522.51</v>
+        <v>531.59</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
@@ -1474,10 +1474,10 @@
         <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>110.09</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C97E60&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL404639</t>
+          <t>CHEMBL251980</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ccccn4)sc23)c(F)c1</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4cccnc4)cc3F)c12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ccccn4)sc23)c(F)c1</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4cccnc4)cc3F)c12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>514.61</v>
+        <v>505.55</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>76.14</v>
+        <v>97.12</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C96F10&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL258396</t>
+          <t>CHEMBL402792</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cn1ncnc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
+          <t>Cn1cc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)cn1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cn1ncnc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
+          <t>Cn1cc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)cn1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>518.6</v>
+        <v>517.61</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>6</v>
@@ -1613,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>93.95999999999999</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C97F40&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL402792</t>
+          <t>CHEMBL257987</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)cn1</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4nncs4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)cn1</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4nncs4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>517.61</v>
+        <v>521.62</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
@@ -1681,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>81.06999999999999</v>
+        <v>89.03</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC80B0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL402550</t>
+          <t>CHEMBL403747</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4nccs4)sc23)c(F)c1</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ccoc4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4nccs4)sc23)c(F)c1</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ccoc4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>520.64</v>
+        <v>503.58</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>76.14</v>
+        <v>76.39</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F3C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8970&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL254085</t>
+          <t>CHEMBL256767</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N[C@@H]1CCN(Cc2ccn3ncnc(Oc4ccc(NC(=O)NC(=O)Cc5ccc(F)cc5)cc4F)c23)C[C@H]1O</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ncccn4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N[C@@H]1CCN(Cc2ccn3ncnc(Oc4ccc(NC(=O)NC(=O)Cc5ccc(F)cc5)cc4F)c23)C[C@H]1O</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ncccn4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>551.55</v>
+        <v>515.6</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>147.11</v>
+        <v>89.03</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9310&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,52 +1840,52 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL258185</t>
+          <t>C64353004</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cn1cccc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
+          <t>CC(C)[C@H](NC(=O)CN1C(=O)N[C@@H](CC2=c3ccccc3=[NH+]C2)C1=O)c1ccc(F)cc1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cn1cccc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
+          <t>CC(C)[C@H](NC(=O)CN1C(=O)N[C@@H](CC2=c3ccccc3=[NH+]C2)C1=O)c1ccc(F)cc1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>516.62</v>
+        <v>437.5</v>
       </c>
       <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5</v>
-      </c>
       <c r="M21" t="n">
-        <v>68.18000000000001</v>
+        <v>92.48</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3C94430&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,52 +1908,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL402042</t>
+          <t>C08858076</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CC[NH+]1CCN(c2nc3ccc(C)cn3c(=O)c2/C=C2\SC(=S)N(Cc3ccc(C)cc3)C2=O)CC1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CC[NH+]1CCN(c2nc3ccc(C)cn3c(=O)c2/C=C2\SC(=S)N(Cc3ccc(C)cc3)C2=O)CC1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>520.7</v>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4cccnc4)sc23)c(F)c1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4cccnc4)sc23)c(F)c1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>514.61</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76.14</v>
+        <v>62.36</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC200&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,52 +1976,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL257987</t>
+          <t>C22327448</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CCOc1cc2c(cc1NC(=O)c1cc(-c3cc(C)oc3C)nc3onc(C)c13)O[C@@H](C)C2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CCOc1cc2c(cc1NC(=O)c1cc(-c3cc(C)oc3C)nc3onc(C)c13)O[C@@H](C)C2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>447.49</v>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4nncs4)sc23)c(F)c1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4nncs4)sc23)c(F)c1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>521.62</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
         <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>89.03</v>
+        <v>99.62</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC190&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,52 +2044,52 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL400726</t>
+          <t>C19742373</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cc1ncc2c(c1-c1noc([C@H]3CCC(=O)NC3)n1)CCN(c1cc[nH+]cc1)C2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cc1ncc2c(c1-c1noc([C@H]3CCC(=O)NC3)n1)CCN(c1cc[nH+]cc1)C2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>391.46</v>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>NCC1CN(Cc2ccn3ncnc(Oc4ccc(NC(=O)NC(=O)Cc5ccc(F)cc5)cc4F)c23)C1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NCC1CN(Cc2ccn3ncnc(Oc4ccc(NC(=O)NC(=O)Cc5ccc(F)cc5)cc4F)c23)C1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>521.53</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>8</v>
-      </c>
       <c r="K24" t="n">
         <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>126.88</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC7B0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C64353004</t>
+          <t>C13304253</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CC(C)[C@H](NC(=O)CN1C(=O)N[C@@H](CC2=c3ccccc3=[NH+]C2)C1=O)c1ccc(F)cc1</t>
+          <t>C/C=C1/CN2[C@@H]3Cc4c([nH]c5ccc(O)cc45)[C@]2(O)C[C@@H]1[C@@H]3CO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CC(C)[C@H](NC(=O)CN1C(=O)N[C@@H](CC2=c3ccccc3=[NH+]C2)C1=O)c1ccc(F)cc1</t>
+          <t>C/C=C1/CN2[C@@H]3Cc4c([nH]c5ccc(O)cc45)[C@]2(O)C[C@@H]1[C@@H]3CO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>437.5</v>
+        <v>326.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>92.48</v>
+        <v>79.72</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC4A0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C08858076</t>
+          <t>C52595533</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CC[NH+]1CCN(c2nc3ccc(C)cn3c(=O)c2/C=C2\SC(=S)N(Cc3ccc(C)cc3)C2=O)CC1</t>
+          <t>CC[C@@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc(C2=C3C=CC=C[C@@H]3N(C)C(=O)[C@@H]2c2nnn[n-]2)cc1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CC[NH+]1CCN(c2nc3ccc(C)cn3c(=O)c2/C=C2\SC(=S)N(Cc3ccc(C)cc3)C2=O)CC1</t>
+          <t>CC[C@@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc(C2=C3C=CC=C[C@@H]3N(C)C(=O)[C@@H]2c2nnn[n-]2)cc1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>520.7</v>
+        <v>494.6</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
         <v>6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>62.36</v>
+        <v>102.49</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC820&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C22327448</t>
+          <t>C01424204</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CCOc1cc2c(cc1NC(=O)c1cc(-c3cc(C)oc3C)nc3onc(C)c13)O[C@@H](C)C2</t>
+          <t>CCOc1cc(C)c(Cl)cc1S(=O)(=O)NCCc1c(C)[nH]c2ccc(OC(F)(F)F)cc12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CCOc1cc2c(cc1NC(=O)c1cc(-c3cc(C)oc3C)nc3onc(C)c13)O[C@@H](C)C2</t>
+          <t>CCOc1cc(C)c(Cl)cc1S(=O)(=O)NCCc1c(C)[nH]c2ccc(OC(F)(F)F)cc12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>447.49</v>
+        <v>490.93</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>99.62</v>
+        <v>80.42</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC660&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C19742373</t>
+          <t>C36490170</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cc1ncc2c(c1-c1noc([C@H]3CCC(=O)NC3)n1)CCN(c1cc[nH+]cc1)C2</t>
+          <t>C[C@]12CCCC[C@H]1[C@@H]2C(=O)N/N=C\c1cc(Br)c(O)cc1O</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cc1ncc2c(c1-c1noc([C@H]3CCC(=O)NC3)n1)CCN(c1cc[nH+]cc1)C2</t>
+          <t>C[C@]12CCCC[C@H]1[C@@H]2C(=O)N/N=C\c1cc(Br)c(O)cc1O</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>391.46</v>
+        <v>367.24</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>98.29000000000001</v>
+        <v>81.92</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC5F0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C13304253</t>
+          <t>C27664421</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C/C=C1/CN2[C@@H]3Cc4c([nH]c5ccc(O)cc45)[C@]2(O)C[C@@H]1[C@@H]3CO</t>
+          <t>CC(=O)c1ccc(-c2ccc([C@@H]3NC(=O)N[C@@](O)(C(F)(F)F)[C@@H]3C(=O)c3cccs3)o2)cc1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C/C=C1/CN2[C@@H]3Cc4c([nH]c5ccc(O)cc45)[C@]2(O)C[C@@H]1[C@@H]3CO</t>
+          <t>CC(=O)c1ccc(-c2ccc([C@@H]3NC(=O)N[C@@](O)(C(F)(F)F)[C@@H]3C(=O)c3cccs3)o2)cc1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>326.4</v>
+        <v>478.45</v>
       </c>
       <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
-        <v>4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6</v>
-      </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>79.72</v>
+        <v>108.64</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC6D0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C52595533</t>
+          <t>C35574507</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CC[C@@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc(C2=C3C=CC=C[C@@H]3N(C)C(=O)[C@@H]2c2nnn[n-]2)cc1</t>
+          <t>O=C(CCC1CCCC1)N1CCN(c2nc(CN3CC[NH+](C4CCCC4)CC3)cc(=O)[nH]2)CC1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CC[C@@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc(C2=C3C=CC=C[C@@H]3N(C)C(=O)[C@@H]2c2nnn[n-]2)cc1</t>
+          <t>O=C(CCC1CCCC1)N1CCN(c2nc(CN3CC[NH+](C4CCCC4)CC3)cc(=O)[nH]2)CC1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>494.6</v>
+        <v>471.67</v>
       </c>
       <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3</v>
-      </c>
       <c r="M30" t="n">
-        <v>102.49</v>
+        <v>76.98</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCE40&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C01424204</t>
+          <t>C57773879</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CCOc1cc(C)c(Cl)cc1S(=O)(=O)NCCc1c(C)[nH]c2ccc(OC(F)(F)F)cc12</t>
+          <t>COCCOc1cccc(C[NH+]2C[C@@H]3CC[C@](O)(c4cnc(OC)nc4OC)[C@@H]3C2)c1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CCOc1cc(C)c(Cl)cc1S(=O)(=O)NCCc1c(C)[nH]c2ccc(OC(F)(F)F)cc12</t>
+          <t>COCCOc1cccc(C[NH+]2C[C@@H]3[C@@H](CC[C@]3(O)c3cnc(OC)nc3OC)C2)c1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>490.93</v>
+        <v>430.53</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9</v>
+      </c>
+      <c r="K31" t="n">
         <v>4</v>
       </c>
-      <c r="J31" t="n">
-        <v>8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
-      </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>80.42</v>
+        <v>87.37</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDE00&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C36490170</t>
+          <t>C20207700</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C[C@]12CCCC[C@H]1[C@@H]2C(=O)N/N=C\c1cc(Br)c(O)cc1O</t>
+          <t>[H]/N=C1C(=C\c2cn(CCOc3c(C)cccc3C)c3ccccc23)/C(=O)N=C2SC(S(C)(=O)=O)=NN2/1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C[C@]12CCCC[C@H]1[C@@H]2C(=O)N/N=C\c1cc(Br)c(O)cc1O</t>
+          <t>[H]/N=C1C(=C\c2cn(CCOc3c(C)cccc3C)c3ccccc23)/C(=O)N=C2SC(S(C)(=O)=O)=NN2/1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>367.24</v>
+        <v>521.62</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
       <c r="M32" t="n">
-        <v>81.92</v>
+        <v>117.18</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD5B0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C27664421</t>
+          <t>C02532037</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CC(=O)c1ccc(-c2ccc([C@@H]3NC(=O)N[C@@](O)(C(F)(F)F)[C@@H]3C(=O)c3cccs3)o2)cc1</t>
+          <t>COc1ccc(C(=O)Oc2ccc(/C=N/NC(=O)CNC(=O)c3cccc(Br)c3)cc2)cc1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CC(=O)c1ccc(-c2ccc([C@@H]3NC(=O)N[C@@](O)(C(F)(F)F)[C@@H]3C(=O)c3cccs3)o2)cc1</t>
+          <t>COc1ccc(C(=O)Oc2ccc(/C=N/NC(=O)CNC(=O)c3cccc(Br)c3)cc2)cc1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>478.45</v>
+        <v>510.34</v>
       </c>
       <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8</v>
+      </c>
+      <c r="K33" t="n">
         <v>3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4</v>
       </c>
       <c r="L33" t="n">
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>108.64</v>
+        <v>106.09</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCB30&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C35574507</t>
+          <t>C15956105</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>O=C(CCC1CCCC1)N1CCN(c2nc(CN3CC[NH+](C4CCCC4)CC3)cc(=O)[nH]2)CC1</t>
+          <t>CC(=O)NC[C@@H](C)CCC(=O)[C@@H](C)[C@@H]1C(=O)C[C@@H]2[C@@H]3CC=C4C[C@@H](OC(C)=O)CC[C@@]4(C)[C@@H]3CC[C@@]21C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O=C(CCC1CCCC1)N1CCN(c2nc(CN3CC[NH+](C4CCCC4)CC3)cc(=O)[nH]2)CC1</t>
+          <t>CC(=O)NC[C@@H](C)CCC(=O)[C@@H](C)[C@@H]1C(=O)C[C@@H]2[C@@H]3CC=C4C[C@@H](OC(C)=O)CC[C@@]4(C)[C@@H]3CC[C@]12C</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>471.67</v>
+        <v>513.72</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>76.98</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDEE0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C57773879</t>
+          <t>C03175646</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COCCOc1cccc(C[NH+]2C[C@@H]3CC[C@](O)(c4cnc(OC)nc4OC)[C@@H]3C2)c1</t>
+          <t>CC1(C)C=C2NN(c3ccccc3)[P@](=S)(OCCc3ccccn3)C2=C([NH+]2CCCCC2)C1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>COCCOc1cccc(C[NH+]2C[C@@H]3[C@@H](CC[C@]3(O)c3cnc(OC)nc3OC)C2)c1</t>
+          <t>CC1(C)C=C2NN(c3ccccc3)[P@](=S)(OCCc3ccccn3)C2=C([NH+]2CCCCC2)C1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>430.53</v>
+        <v>481.63</v>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>87.37</v>
+        <v>41.83</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC900&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C20207700</t>
+          <t>C14745241</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[H]/N=C1C(=C\c2cn(CCOc3c(C)cccc3C)c3ccccc23)/C(=O)N=C2SC(S(C)(=O)=O)=NN2/1</t>
+          <t>Cn1nc(C(=O)N2CCCC2)c2c1CC[C@@H]([NH2+]C(C)(C)CC13CC4CC(CC(C4)C1)C3)C2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[H]/N=C1C(=C\c2cn(CCOc3c(C)cccc3C)c3ccccc23)/C(=O)N=C2SC(S(C)(=O)=O)=NN2/1</t>
+          <t>Cn1nc(C(=O)N2CCCC2)c2c1CC[C@@H]([NH2+]C(C)(C)CC13CC4CC(CC(C4)C1)C3)C2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>521.62</v>
+        <v>439.67</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>117.18</v>
+        <v>54.74</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD850&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C02532037</t>
+          <t>C39559756</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>COc1ccc(C(=O)Oc2ccc(/C=N/NC(=O)CNC(=O)c3cccc(Br)c3)cc2)cc1</t>
+          <t>C/C=C/C=C/C=C\C(=O)N[C@H](C(=O)O[C@H](C1=C2C=CC(Cl)=C[C@@H]2N=C1)[C@H]1NC(=O)CNC1=O)[C@H](C)[NH3+]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>COc1ccc(C(=O)Oc2ccc(/C=N/NC(=O)CNC(=O)c3cccc(Br)c3)cc2)cc1</t>
+          <t>C/C=C/C=C/C=C\C(=O)N[C@H](C(=O)O[C@H](C1=C2C=CC(Cl)=C[C@@H]2N=C1)[C@H]1NC(=O)CNC1=O)[C@H](C)[NH3+]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>510.34</v>
+        <v>514.99</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K37" t="n">
         <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>106.09</v>
+        <v>153.6</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F70D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD150&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C15956105</t>
+          <t>C39836473</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CC(=O)NC[C@@H](C)CCC(=O)[C@@H](C)[C@@H]1C(=O)C[C@@H]2[C@@H]3CC=C4C[C@@H](OC(C)=O)CC[C@@]4(C)[C@@H]3CC[C@@]21C</t>
+          <t>CC(C)(C)[C@@H]1CCc2c(sc(NC(=O)/C=C/c3ccccc3)c2C(=O)N[C@H]2CCS(=O)(=O)C2)C1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CC(=O)NC[C@@H](C)CCC(=O)[C@@H](C)[C@@H]1C(=O)C[C@@H]2[C@@H]3CC=C4C[C@@H](OC(C)=O)CC[C@@]4(C)[C@@H]3CC[C@]12C</t>
+          <t>CC(C)(C)[C@@H]1CCc2c(sc(NC(=O)/C=C/c3ccccc3)c2C(=O)N[C@H]2CCS(=O)(=O)C2)C1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,29 +3019,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>513.72</v>
+        <v>500.69</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>89.54000000000001</v>
+        <v>92.34</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD000&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C03175646</t>
+          <t>C60211439</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CC1(C)C=C2NN(c3ccccc3)[P@](=S)(OCCc3ccccn3)C2=C([NH+]2CCCCC2)C1</t>
+          <t>CCn1nc(C(=O)NNC(=O)c2csc(-c3ccc(C)cc3C)n2)c2ccccc2c1=O</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CC1(C)C=C2NN(c3ccccc3)[P@](=S)(OCCc3ccccn3)C2=C([NH+]2CCCCC2)C1</t>
+          <t>CCn1nc(C(=O)NNC(=O)c2csc(-c3ccc(C)cc3C)n2)c2ccccc2c1=O</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>481.63</v>
+        <v>447.52</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
@@ -3100,16 +3100,16 @@
         <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>41.83</v>
+        <v>105.98</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD1C0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C14745241</t>
+          <t>C32910275</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cn1nc(C(=O)N2CCCC2)c2c1CC[C@@H]([NH2+]C(C)(C)CC13CC4CC(CC(C4)C1)C3)C2</t>
+          <t>O=C(COC(=O)C12C[C@@H]3C[C@@H](CC(Cl)(C3)C1)C2)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cn1nc(C(=O)N2CCCC2)c2c1CC[C@@H]([NH2+]C(C)(C)CC13CC4CC(CC(C4)C1)C3)C2</t>
+          <t>O=C(COC(=O)C12C[C@@H]3C[C@@H](CC(Cl)(C3)C1)C2)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>439.67</v>
+        <v>403.87</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" t="n">
         <v>2</v>
       </c>
-      <c r="J40" t="n">
-        <v>5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>7</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
       <c r="M40" t="n">
-        <v>54.74</v>
+        <v>104.05</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD230&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C39559756</t>
+          <t>C09831518</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C/C=C/C=C/C=C\C(=O)N[C@H](C(=O)O[C@H](C1=C2C=CC(Cl)=C[C@@H]2N=C1)[C@H]1NC(=O)CNC1=O)[C@H](C)[NH3+]</t>
+          <t>O=C(CCc1nnc2n(Cc3ccccc3Cl)c(=O)c3ccccc3n12)NCCc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C/C=C/C=C/C=C\C(=O)N[C@H](C(=O)O[C@H](C1=C2C=CC(Cl)=C[C@@H]2N=C1)[C@H]1NC(=O)CNC1=O)[C@H](C)[NH3+]</t>
+          <t>O=C(CCc1nnc2n(Cc3ccccc3Cl)c(=O)c3ccccc3n12)NCCc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,25 +3227,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>514.99</v>
+        <v>525.01</v>
       </c>
       <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
         <v>4</v>
       </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
       <c r="J41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>153.6</v>
+        <v>97.08</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCDD0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C39836473</t>
+          <t>C09374615</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CC(C)(C)[C@@H]1CCc2c(sc(NC(=O)/C=C/c3ccccc3)c2C(=O)N[C@H]2CCS(=O)(=O)C2)C1</t>
+          <t>Cc1ccccc1COc1ccc(C(=O)C2=C([O-])C(=O)N(CCC[NH+](C)C)[C@@H]2c2cccc(O)c2)cc1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CC(C)(C)[C@@H]1CCc2c(sc(NC(=O)/C=C/c3ccccc3)c2C(=O)N[C@H]2CCS(=O)(=O)C2)C1</t>
+          <t>Cc1ccccc1COc1ccc(C(=O)C2=C([O-])C(=O)N(CCC[NH+](C)C)[C@@H]2c2cccc(O)c2)cc1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>500.69</v>
+        <v>500.6</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>92.34</v>
+        <v>94.34</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC120&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C60211439</t>
+          <t>CHEMBL1738828</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CCn1nc(C(=O)NNC(=O)c2csc(-c3ccc(C)cc3C)n2)c2ccccc2c1=O</t>
+          <t>O=C(Nc1cc(-c2ccncc2)c[nH]c1=O)c1ccccc1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CCn1nc(C(=O)NNC(=O)c2csc(-c3ccc(C)cc3C)n2)c2ccccc2c1=O</t>
+          <t>O=C(Nc1cc(-c2ccncc2)c[nH]c1=O)c1ccccc1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3359,40 +3359,66 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>447.52</v>
+        <v>291.31</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>105.98</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+        <v>74.84999999999999</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>9</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>CHEMBL4256682</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Inhibition of MET (unknown origin) at 30 uM using peptide as substrate in presence of ATP and MgCl2 by mobility shift assay relative to control</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCCF0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3430,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C32910275</t>
+          <t>CHEMBL2420903</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3438,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>O=C(COC(=O)C12C[C@@H]3C[C@@H](CC(Cl)(C3)C1)C2)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
+          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>O=C(COC(=O)C12C[C@@H]3C[C@@H](CC(Cl)(C3)C1)C2)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
+          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3427,40 +3453,66 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>403.87</v>
+        <v>330.39</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
         <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6</v>
       </c>
       <c r="L44" t="n">
         <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>104.05</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+        <v>96.03</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>11</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>CHEMBL2424318</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Inhibition of MET (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD310&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3524,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C09831518</t>
+          <t>CHEMBL3408389</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3532,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>O=C(CCc1nnc2n(Cc3ccccc3Cl)c(=O)c3ccccc3n12)NCCc1c[nH]c2ccccc12</t>
+          <t>CCOC(=O)c1nn(-c2ccc(Cl)cc2)/c(=N/c2nc(-c3ccccc3)cc(-c3ccccc3)c2C#N)s1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>O=C(CCc1nnc2n(Cc3ccccc3Cl)c(=O)c3ccccc3n12)NCCc1c[nH]c2ccccc12</t>
+          <t>CCOC(=O)c1nn(-c2ccc(Cl)cc2)/c(=N/c2nc(-c3ccccc3)cc(-c3ccccc3)c2C#N)s1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3495,40 +3547,66 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>525.01</v>
+        <v>538.03</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>97.08</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
+        <v>93.16</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>12</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>CHEMBL3413727</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Inhibition of MET (unknown origin) assessed as inhibition of peptide phosphorylation at 30 uM by based microfluidic mobility shift assay</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD540&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3618,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C09374615</t>
+          <t>CHEMBL4290876</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3626,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cc1ccccc1COc1ccc(C(=O)C2=C([O-])C(=O)N(CCC[NH+](C)C)[C@@H]2c2cccc(O)c2)cc1</t>
+          <t>CNC(=O)Nc1sc2c(C(C)C)cc(NS(=O)(=O)N(C)C)cc2c1C(N)=O</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cc1ccccc1COc1ccc(C(=O)C2=C([O-])C(=O)N(CCC[NH+](C)C)[C@@H]2c2cccc(O)c2)cc1</t>
+          <t>CNC(=O)Nc1sc2c(C(C)C)cc(NS(=O)(=O)N(C)C)cc2c1C(N)=O</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3563,40 +3641,66 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>500.6</v>
+        <v>413.53</v>
       </c>
       <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>10</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4</v>
-      </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>94.34</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+        <v>133.63</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>CHEMBL4266871</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Inhibition of c-MET (unknown origin) at 1 uM</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441AA2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC3C0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3712,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL1738828</t>
+          <t>CHEMBL3746959</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3720,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>O=C(Nc1cc(-c2ccncc2)c[nH]c1=O)c1ccccc1</t>
+          <t>Cn1c(=O)c(Oc2ccc(F)cc2F)cc2cnc(Nc3ccc(N4CCC(O)CC4)cc3)nc21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>O=C(Nc1cc(-c2ccncc2)c[nH]c1=O)c1ccccc1</t>
+          <t>Cn1c(=O)c(Oc2ccc(F)cc2F)cc2cnc(Nc3ccc(N4CCC(O)CC4)cc3)nc21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3739,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>291.31</v>
+        <v>479.49</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>74.84999999999999</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3671,16 +3775,16 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>CHEMBL4256682</t>
+          <t>CHEMBL3750644</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Inhibition of MET (unknown origin) at 30 uM using peptide as substrate in presence of ATP and MgCl2 by mobility shift assay relative to control</t>
+          <t>Inhibition of cMET (unknown origin) at 10 uM</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -3690,7 +3794,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A9D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD930&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3702,7 +3806,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL2420903</t>
+          <t>CHEMBL2402081</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3710,12 +3814,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
+          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
+          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3729,25 +3833,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>330.39</v>
+        <v>432.46</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
         <v>4</v>
       </c>
-      <c r="L48" t="n">
-        <v>2</v>
-      </c>
       <c r="M48" t="n">
-        <v>96.03</v>
+        <v>84.97</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3765,16 +3869,16 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>CHEMBL2424318</t>
+          <t>CHEMBL2404173</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Inhibition of MET (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
+          <t>Inhibition of MET (unknown origin) at 10 uM relative to control</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -3784,7 +3888,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDA10&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3796,7 +3900,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL3408389</t>
+          <t>CHEMBL2348316</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3804,12 +3908,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1nn(-c2ccc(Cl)cc2)/c(=N/c2nc(-c3ccccc3)cc(-c3ccccc3)c2C#N)s1</t>
+          <t>COc1cc(/C=C/C(=O)OCCc2ccc(O)cc2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1nn(-c2ccc(Cl)cc2)/c(=N/c2nc(-c3ccccc3)cc(-c3ccccc3)c2C#N)s1</t>
+          <t>COc1cc(/C=C/C(=O)OCCc2ccc(O)cc2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3823,52 +3927,52 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>538.03</v>
+        <v>358.39</v>
       </c>
       <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>74.22</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>6</v>
-      </c>
-      <c r="K49" t="n">
-        <v>5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5</v>
-      </c>
-      <c r="M49" t="n">
-        <v>93.16</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>12</v>
-      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>CHEMBL3413727</t>
+          <t>CHEMBL2350425</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Inhibition of MET (unknown origin) assessed as inhibition of peptide phosphorylation at 30 uM by based microfluidic mobility shift assay</t>
+          <t>Inhibition of c-MET phosphorylation (unknown origin) at 25 uM after 1 hr by Z'-LYTE kinase assay</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -3878,7 +3982,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A9850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDCB0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3890,7 +3994,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL4290876</t>
+          <t>CHEMBL205158</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3898,12 +4002,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CNC(=O)Nc1sc2c(C(C)C)cc(NS(=O)(=O)N(C)C)cc2c1C(N)=O</t>
+          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CNC(=O)Nc1sc2c(C(C)C)cc(NS(=O)(=O)N(C)C)cc2c1C(N)=O</t>
+          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3917,25 +4021,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>413.53</v>
+        <v>427.51</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" t="n">
         <v>4</v>
       </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>6</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
       <c r="M50" t="n">
-        <v>133.63</v>
+        <v>76.16</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3953,16 +4057,16 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>2.76</v>
+        <v>6.54</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>CHEMBL4266871</t>
+          <t>CHEMBL1962143</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Inhibition of c-MET (unknown origin) at 1 uM</t>
+          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -3972,386 +4076,10 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A9FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDD90&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>CHEMBL3746959</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(Oc2ccc(F)cc2F)cc2cnc(Nc3ccc(N4CCC(O)CC4)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(Oc2ccc(F)cc2F)cc2cnc(Nc3ccc(N4CCC(O)CC4)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>479.49</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4</v>
-      </c>
-      <c r="M51" t="n">
-        <v>92.51000000000001</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>11</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL3750644</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Inhibition of cMET (unknown origin) at 10 uM</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A9E00&gt;</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CHEMBL2402081</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>432.46</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4</v>
-      </c>
-      <c r="M52" t="n">
-        <v>84.97</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>CHEMBL2404173</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A9D90&gt;</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>CHEMBL2348316</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>COc1cc(/C=C/C(=O)OCCc2ccc(O)cc2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>COc1cc(/C=C/C(=O)OCCc2ccc(O)cc2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>358.39</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2</v>
-      </c>
-      <c r="M53" t="n">
-        <v>74.22</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>CHEMBL2350425</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Inhibition of c-MET phosphorylation (unknown origin) at 25 uM after 1 hr by Z'-LYTE kinase assay</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A8C80&gt;</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>CHEMBL205158</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>427.51</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>7</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4</v>
-      </c>
-      <c r="M54" t="n">
-        <v>76.16</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441AA500&gt;</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
